--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitkapadia/Desktop/ACE-transforming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB38E03D-4914-AB47-8B3F-2DE44474C49A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16547E1-FB43-124C-9AFF-C32C7B79E63A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{C90B25B0-17E2-F545-8077-B7C94154A5B7}"/>
   </bookViews>
@@ -441,7 +441,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitkapadia/Desktop/ACE-transforming/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Local_User\Desktop\TIL with python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16547E1-FB43-124C-9AFF-C32C7B79E63A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{C90B25B0-17E2-F545-8077-B7C94154A5B7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -69,7 +68,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -129,13 +128,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1DEB74FA-8DD2-E74E-8D77-C97914A49C48}" name="Table2" displayName="Table2" ref="A1:D13" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D13" xr:uid="{2DBA7578-085A-BA45-9B8E-5D80F6DEAF8F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D13" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D13"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{27323D49-3EA2-5C4E-B6B7-B92A7AD64FE6}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{BD20999F-EE3B-9E45-988C-0115821DEDA7}" name="Number of Classrooms Renovated"/>
-    <tableColumn id="3" xr3:uid="{90DE5C48-EBDA-7249-BE87-DA8F2CDF406F}" name="Number of Stakeholders Contacted"/>
-    <tableColumn id="4" xr3:uid="{9A25808C-76A5-4247-9063-8B2C4C1385D7}" name="Number of Responses"/>
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Number of Classrooms Renovated"/>
+    <tableColumn id="3" name="Number of Stakeholders Contacted"/>
+    <tableColumn id="4" name="Number of Responses"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -437,14 +436,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC4D880-E9A7-D148-B622-9B637A0EB0B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.5" customWidth="1"/>
@@ -452,7 +451,7 @@
     <col min="4" max="4" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -467,7 +466,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -481,7 +480,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -495,7 +494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -509,7 +508,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -523,7 +522,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -537,7 +536,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -551,7 +550,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -565,7 +564,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -579,7 +578,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -440,7 +440,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -440,7 +440,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -471,13 +471,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>42</v>
-      </c>
-      <c r="D2">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -485,13 +482,10 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>58</v>
-      </c>
-      <c r="D3">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -499,13 +493,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>91</v>
-      </c>
-      <c r="D4">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -513,13 +504,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>102</v>
-      </c>
-      <c r="D5">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -527,13 +515,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>89</v>
-      </c>
-      <c r="D6">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -541,13 +526,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>45</v>
-      </c>
-      <c r="D7">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -555,13 +537,10 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>62</v>
-      </c>
-      <c r="D8">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -569,13 +548,10 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>47</v>
-      </c>
-      <c r="D9">
-        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -584,15 +560,14 @@
       </c>
       <c r="B13">
         <f>SUBTOTAL(109,B2:B12)</f>
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <f>SUBTOTAL(109,C2:C12)</f>
         <v>536</v>
       </c>
       <c r="D13">
-        <f>SUBTOTAL(109,D2:D12)</f>
-        <v>322</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -440,7 +440,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -474,7 +474,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>42</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -485,7 +485,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -496,7 +496,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>91</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -564,7 +564,7 @@
       </c>
       <c r="C13">
         <f>SUBTOTAL(109,C2:C12)</f>
-        <v>536</v>
+        <v>734</v>
       </c>
       <c r="D13">
         <v>195</v>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Number of Classrooms Renovated</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>Winter/Spring 2020</t>
   </si>
   <si>
@@ -63,6 +60,15 @@
   </si>
   <si>
     <t>Winter/Spring 2021</t>
+  </si>
+  <si>
+    <t>Summer 2017</t>
+  </si>
+  <si>
+    <t>Fall 2017</t>
+  </si>
+  <si>
+    <t>Term</t>
   </si>
 </sst>
 </file>
@@ -131,7 +137,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D13" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:D13"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="1" name="Term"/>
     <tableColumn id="2" name="Number of Classrooms Renovated"/>
     <tableColumn id="3" name="Number of Stakeholders Contacted"/>
     <tableColumn id="4" name="Number of Responses"/>
@@ -440,7 +446,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -453,7 +459,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -468,62 +474,70 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C2">
-        <v>459</v>
+        <f>233+46</f>
+        <v>279</v>
+      </c>
+      <c r="D2">
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <v>75</v>
+        <f>122+122</f>
+        <v>244</v>
+      </c>
+      <c r="D3">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>200</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -534,7 +548,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -545,12 +559,34 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>0</v>
       </c>
     </row>
@@ -560,14 +596,15 @@
       </c>
       <c r="B13">
         <f>SUBTOTAL(109,B2:B12)</f>
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="C13">
         <f>SUBTOTAL(109,C2:C12)</f>
-        <v>734</v>
+        <v>1257</v>
       </c>
       <c r="D13">
-        <v>195</v>
+        <f>SUM(D2:D12)</f>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Local_User\Desktop\TIL with python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\03_Website\_TIL Website\TIL with python\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Number of Classrooms Renovated</t>
   </si>
@@ -35,33 +35,9 @@
     <t>Number of Responses</t>
   </si>
   <si>
-    <t>Spring/Summer 2019</t>
-  </si>
-  <si>
-    <t>Fall/Winter 2019</t>
-  </si>
-  <si>
-    <t>Fall/Winter 2018</t>
-  </si>
-  <si>
-    <t>Winter/Spring 2019</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Winter/Spring 2020</t>
-  </si>
-  <si>
-    <t>Spring/Summer 2020</t>
-  </si>
-  <si>
-    <t>Fall/Winter 2020</t>
-  </si>
-  <si>
-    <t>Winter/Spring 2021</t>
-  </si>
-  <si>
     <t>Summer 2017</t>
   </si>
   <si>
@@ -69,6 +45,33 @@
   </si>
   <si>
     <t>Term</t>
+  </si>
+  <si>
+    <t>Spring/Summer 2018 - Phase 1</t>
+  </si>
+  <si>
+    <t>Fall/Winter 2018 - Phase 2</t>
+  </si>
+  <si>
+    <t>Winter/Spring 2019 - Phase 3</t>
+  </si>
+  <si>
+    <t>Spring/Summer 2019 - Phase 4</t>
+  </si>
+  <si>
+    <t>Fall/Winter 2019 - Phase 5</t>
+  </si>
+  <si>
+    <t>Winter/Spring 2020 - Phase 6</t>
+  </si>
+  <si>
+    <t>Spring/Summer 2020 - Phase 7</t>
+  </si>
+  <si>
+    <t>Fall/Winter 2020 - Phase 8</t>
+  </si>
+  <si>
+    <t>Winter/Spring 2021 - Phase 9</t>
   </si>
 </sst>
 </file>
@@ -134,8 +137,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D13" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D14" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D14"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Term"/>
     <tableColumn id="2" name="Number of Classrooms Renovated"/>
@@ -443,23 +446,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.625" customWidth="1"/>
     <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" customWidth="1"/>
+    <col min="3" max="3" width="32.125" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -472,139 +475,175 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C2">
-        <f>233+46</f>
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <f>122+122</f>
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>459</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+      <c r="D5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>158</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <f>SUBTOTAL(109,B2:B12)</f>
-        <v>78</v>
-      </c>
-      <c r="C13">
-        <f>SUBTOTAL(109,C2:C12)</f>
-        <v>1257</v>
-      </c>
-      <c r="D13">
-        <f>SUM(D2:D12)</f>
-        <v>94</v>
+      <c r="B14">
+        <f>SUBTOTAL(109,B2:B13)</f>
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <f>SUBTOTAL(109,C2:C13)</f>
+        <v>734</v>
+      </c>
+      <c r="D14">
+        <f>SUM(D2:D13)</f>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\03_Website\_TIL Website\TIL with python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\03_Website\_TIL Website\TIL with python\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Number of Classrooms Renovated</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Winter/Spring 2021 - Phase 9</t>
+  </si>
+  <si>
+    <t>MISCELLANEOUS</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -508,7 +511,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>459</v>
@@ -629,21 +632,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>650</v>
+      </c>
+      <c r="D13">
+        <v>700</v>
+      </c>
+    </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14">
         <f>SUBTOTAL(109,B2:B13)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14">
         <f>SUBTOTAL(109,C2:C13)</f>
-        <v>734</v>
+        <v>1384</v>
       </c>
       <c r="D14">
         <f>SUM(D2:D13)</f>
-        <v>195</v>
+        <v>895</v>
       </c>
     </row>
   </sheetData>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -452,7 +452,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -525,7 +525,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>117</v>
@@ -649,7 +649,7 @@
       </c>
       <c r="B14">
         <f>SUBTOTAL(109,B2:B13)</f>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C14">
         <f>SUBTOTAL(109,C2:C13)</f>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -452,7 +452,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -483,7 +483,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -511,7 +511,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>459</v>
@@ -525,7 +525,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>117</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>339</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -637,10 +637,10 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="D13">
-        <v>700</v>
+        <v>900</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -649,15 +649,15 @@
       </c>
       <c r="B14">
         <f>SUBTOTAL(109,B2:B13)</f>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <f>SUBTOTAL(109,C2:C13)</f>
-        <v>1384</v>
+        <v>2273</v>
       </c>
       <c r="D14">
         <f>SUM(D2:D13)</f>
-        <v>895</v>
+        <v>1182</v>
       </c>
     </row>
   </sheetData>
